--- a/get_prompt/prompt_result.xlsx
+++ b/get_prompt/prompt_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitee\quantity_extraction_and_understanding\get_prompt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E10157-E530-4C24-8F18-54440B5863DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726DE11A-ED69-4B88-B533-C8E9C72094AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,6 +663,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -910,8 +916,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,7 +968,108 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4242,16 +4352,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4578,11 +4688,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BI1" sqref="BI1"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
+      <selection activeCell="CO9" sqref="CO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="18" max="19" width="8.88671875" style="1"/>
+    <col min="39" max="39" width="8.88671875" style="1"/>
+    <col min="52" max="52" width="8.88671875" style="1"/>
+    <col min="61" max="61" width="8.88671875" style="1"/>
+    <col min="91" max="91" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4591,7 +4709,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -4636,10 +4754,10 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T1" t="s">
@@ -4699,7 +4817,7 @@
       <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AN1" t="s">
@@ -4738,7 +4856,7 @@
       <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="BA1" t="s">
@@ -4765,7 +4883,7 @@
       <c r="BH1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BJ1" t="s">
@@ -4855,7 +4973,7 @@
       <c r="CL1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="CN1" t="s">
@@ -4878,7 +4996,7 @@
       <c r="B2">
         <v>72.068126514935003</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>76.089169416211206</v>
       </c>
       <c r="D2">
@@ -4923,10 +5041,10 @@
       <c r="Q2">
         <v>45.415316652767999</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>72.815966145753293</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>72.797734180712894</v>
       </c>
       <c r="T2">
@@ -4986,7 +5104,7 @@
       <c r="AL2">
         <v>65.629346820391504</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="1">
         <v>72.539983420834503</v>
       </c>
       <c r="AN2">
@@ -5025,7 +5143,7 @@
       <c r="AY2">
         <v>61.4071859668705</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="1">
         <v>73.307853848279393</v>
       </c>
       <c r="BA2">
@@ -5052,7 +5170,7 @@
       <c r="BH2">
         <v>63.069153476784699</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" s="1">
         <v>73.741571679533607</v>
       </c>
       <c r="BJ2">
@@ -5142,7 +5260,7 @@
       <c r="CL2">
         <v>65.058448053128899</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" s="1">
         <v>72.914482680440102</v>
       </c>
       <c r="CN2">
@@ -5166,7 +5284,7 @@
       <c r="B3">
         <v>72.736667587731404</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>79.995701697829304</v>
       </c>
       <c r="D3">
@@ -5211,10 +5329,10 @@
       <c r="Q3">
         <v>68.108747044917195</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>76.810629087224797</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>75.415830032851304</v>
       </c>
       <c r="T3">
@@ -5274,7 +5392,7 @@
       <c r="AL3">
         <v>82.293911761996796</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="1">
         <v>80.407386939301801</v>
       </c>
       <c r="AN3">
@@ -5313,7 +5431,7 @@
       <c r="AY3">
         <v>76.432040772466294</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="1">
         <v>79.259126216572994</v>
       </c>
       <c r="BA3">
@@ -5340,7 +5458,7 @@
       <c r="BH3">
         <v>77.022888459058606</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" s="1">
         <v>76.758619630959998</v>
       </c>
       <c r="BJ3">
@@ -5430,7 +5548,7 @@
       <c r="CL3">
         <v>76.954499401307899</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" s="1">
         <v>75.5711829541616</v>
       </c>
       <c r="CN3">
@@ -5454,7 +5572,7 @@
       <c r="B4">
         <v>57.872340425531902</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>61.276595744680797</v>
       </c>
       <c r="D4">
@@ -5499,10 +5617,10 @@
       <c r="Q4">
         <v>31.489361702127599</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>59.1489361702127</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>61.702127659574401</v>
       </c>
       <c r="T4">
@@ -5562,7 +5680,7 @@
       <c r="AL4">
         <v>51.489361702127603</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="1">
         <v>60</v>
       </c>
       <c r="AN4">
@@ -5601,7 +5719,7 @@
       <c r="AY4">
         <v>47.234042553191401</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="1">
         <v>60.425531914893597</v>
       </c>
       <c r="BA4">
@@ -5628,7 +5746,7 @@
       <c r="BH4">
         <v>51.9148936170212</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" s="1">
         <v>58.723404255319103</v>
       </c>
       <c r="BJ4">
@@ -5718,7 +5836,7 @@
       <c r="CL4">
         <v>52.7659574468085</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" s="1">
         <v>58.723404255319103</v>
       </c>
       <c r="CN4">
@@ -5742,7 +5860,7 @@
       <c r="B5">
         <v>69.916326893798697</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>74.941851343603503</v>
       </c>
       <c r="D5">
@@ -5787,10 +5905,10 @@
       <c r="Q5">
         <v>49.545764480762799</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>72.080212375581496</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>71.794247749191399</v>
       </c>
       <c r="T5">
@@ -5850,7 +5968,7 @@
       <c r="AL5">
         <v>68.430018992917198</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="1">
         <v>72.885300608439294</v>
       </c>
       <c r="AN5">
@@ -5889,7 +6007,7 @@
       <c r="AY5">
         <v>63.618802180004799</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" s="1">
         <v>73.161762642553995</v>
       </c>
       <c r="BA5">
@@ -5916,7 +6034,7 @@
       <c r="BH5">
         <v>65.2931797599622</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" s="1">
         <v>72.506521642995395</v>
       </c>
       <c r="BJ5">
@@ -6006,7 +6124,7 @@
       <c r="CL5">
         <v>66.836525038176305</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" s="1">
         <v>71.3598547190537</v>
       </c>
       <c r="CN5">
@@ -6025,6 +6143,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="A2:XFD2">
+    <cfRule type="top10" dxfId="6" priority="4" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:XFD3">
+    <cfRule type="top10" dxfId="5" priority="3" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:XFD4">
+    <cfRule type="top10" dxfId="4" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:XFD5">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/get_prompt/prompt_result.xlsx
+++ b/get_prompt/prompt_result.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitee\quantity_extraction_and_understanding\get_prompt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726DE11A-ED69-4B88-B533-C8E9C72094AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48DCE5D-3636-4BFF-9B14-79CAEAD0AECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prompt_result" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
   <si>
     <t>指标</t>
   </si>
@@ -916,12 +917,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -968,7 +972,307 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4352,16 +4656,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4688,8 +4992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
-      <selection activeCell="CO9" sqref="CO9"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="CD15" sqref="CD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6144,19 +6448,192 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A2:XFD2">
-    <cfRule type="top10" dxfId="6" priority="4" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="4" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="top10" dxfId="5" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:XFD4">
-    <cfRule type="top10" dxfId="4" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD5">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD678B5-0950-41F4-9F32-DCF72A2FFD2B}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="A5:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2">
+        <v>72.914482680440102</v>
+      </c>
+      <c r="C2" s="2">
+        <v>72.815966145753293</v>
+      </c>
+      <c r="D2" s="2">
+        <v>72.591726004491903</v>
+      </c>
+      <c r="E2" s="2">
+        <v>72.539983420834503</v>
+      </c>
+      <c r="F2" s="2">
+        <v>73.307853848279393</v>
+      </c>
+      <c r="G2" s="2">
+        <v>73.741571679533607</v>
+      </c>
+      <c r="H2" s="2">
+        <v>71.373617871490197</v>
+      </c>
+      <c r="I2" s="2">
+        <v>69.687256756593399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2">
+        <v>75.5711829541616</v>
+      </c>
+      <c r="C3" s="2">
+        <v>76.810629087224797</v>
+      </c>
+      <c r="D3" s="2">
+        <v>76.695803014951906</v>
+      </c>
+      <c r="E3" s="2">
+        <v>80.407386939301801</v>
+      </c>
+      <c r="F3" s="2">
+        <v>79.259126216572994</v>
+      </c>
+      <c r="G3" s="2">
+        <v>76.758619630959998</v>
+      </c>
+      <c r="H3" s="2">
+        <v>76.483037057505101</v>
+      </c>
+      <c r="I3" s="2">
+        <v>85.350818212520295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2">
+        <v>58.723404255319103</v>
+      </c>
+      <c r="C4" s="2">
+        <v>59.1489361702127</v>
+      </c>
+      <c r="D4" s="2">
+        <v>58.723404255319103</v>
+      </c>
+      <c r="E4" s="2">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60.425531914893597</v>
+      </c>
+      <c r="G4" s="2">
+        <v>58.723404255319103</v>
+      </c>
+      <c r="H4" s="2">
+        <v>59.574468085106297</v>
+      </c>
+      <c r="I4" s="2">
+        <v>52.340425531914804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2">
+        <v>71.3598547190537</v>
+      </c>
+      <c r="C5" s="2">
+        <v>72.080212375581496</v>
+      </c>
+      <c r="D5" s="2">
+        <v>71.817465458418496</v>
+      </c>
+      <c r="E5" s="2">
+        <v>72.885300608439294</v>
+      </c>
+      <c r="F5" s="2">
+        <v>73.161762642553995</v>
+      </c>
+      <c r="G5" s="2">
+        <v>72.506521642995395</v>
+      </c>
+      <c r="H5" s="2">
+        <v>71.229880702748602</v>
+      </c>
+      <c r="I5" s="2">
+        <v>71.042069645751795</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="top10" dxfId="31" priority="32" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="top10" dxfId="30" priority="31" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="top10" dxfId="29" priority="30" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="top10" dxfId="28" priority="29" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>